--- a/arquivos/temporarios/RTS.xlsx
+++ b/arquivos/temporarios/RTS.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Avenida das Nações Unidas, 12901, LOJA 123/124 - Brooklin Paulista São Paulo/SP CEP:04578000</t>
+          <t>Rua Abílio Soares, 731 - Paraíso São Paulo/SP CEP:04005003</t>
         </is>
       </c>
       <c r="B1" t="inlineStr"/>
@@ -441,14 +441,14 @@
       <c r="M1" t="inlineStr"/>
       <c r="N1" t="inlineStr">
         <is>
-          <t>72.857</t>
+          <t>72.791</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rua dos Jornalistas, 68, APTO 12 - Cidade Vargas São Paulo/SP CEP:04318-000</t>
+          <t>Rua Desembargador do Vale, 836, ANEXO 830 - Perdizes São Paulo/SP CEP:05010040</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -465,14 +465,14 @@
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
-          <t>72.858</t>
+          <t>72.838</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Avenida Celso dos Santos, 991 - Vila Constança São Paulo/SP CEP:04658241</t>
+          <t>Rua Alves Guimarães, 1091, COZINHA 4 - Pinheiros São Paulo/SP CEP:05410-002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -489,14 +489,14 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>72.865</t>
+          <t>72.859</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AVENIDA MAGALHAES DE CASTRO, 12000, SALÃO COMERCIAL LOJA 17/18.3 PISO 3 - CIDADE JARDIM São Paulo/SP CEP:05676-120</t>
+          <t>Rua Doutor Augusto de Miranda, 549 - Vila Pompéia São Paulo/SP CEP:05026000</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -513,14 +513,14 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>72.869</t>
+          <t>72.891</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rua Capitão Otávio Machado, 994 - Chácara Santo Antônio (Zona Sul) São Paulo/SP CEP:04718002</t>
+          <t>Rua Guaipá, 1017,  - Vila Leopoldina São Paulo/SP CEP:05089-001</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -537,14 +537,14 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>72.912</t>
+          <t>72.903</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rua Amador Bueno, 767, LOJA I LOVE BURGER  - Santo Amaro São Paulo/SP CEP:04752005</t>
+          <t>Rua Coriolano, 301 - Vila Romana São Paulo/SP CEP:05047001</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -561,14 +561,14 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>72.913</t>
+          <t>72.935</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Rua Maria Virgínia Estensoro, 40, BLOCO A - Jardim da Pedreira São Paulo/SP CEP:04462-080</t>
+          <t>Rua Catão, 479, NBURGER - Vila Romana São Paulo/SP CEP:05049000</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -585,14 +585,14 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>72.927</t>
+          <t>72.937</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Rua Estampa Esportiva, 508,  - Americanópolis São Paulo/SP CEP:04429-060</t>
+          <t>RUA CAMILO, 763, sem complemento - VILA ROMANA São Paulo/SP CEP:05045020</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -609,7 +609,151 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>72.928</t>
+          <t>72.941</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Rua José Mariano Filho, 200,  - Jardim Oriental São Paulo/SP CEP:04347-180</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>72.956</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Rua Doutor Tomás Carvalhal, 626 - Paraíso São Paulo/SP CEP:04006001</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>72.967</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Rua Caraíbas, 964, IMOBILIARIA ESTEVAM - Perdizes São Paulo/SP CEP:05020000</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>72.970</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Rua Vergueiro, 4289,  - Vila Mariana São Paulo/SP CEP:04101-901</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>72.988</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Rua Borges Lagoa, 1050,  - Vila Clementino São Paulo/SP CEP:04038-002</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>72.990</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Rua Cardoso de Almeida, 587,  - Perdizes São Paulo/SP CEP:05013-000</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>73.008</t>
         </is>
       </c>
     </row>
